--- a/EIT_2/MenschMaschinenSchnittstellen/NotenberechnungMicroquiz.xlsx
+++ b/EIT_2/MenschMaschinenSchnittstellen/NotenberechnungMicroquiz.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mathias Lampert\Documents\Mathias Schule_Studium\FH\EIT_2\MenschMaschinenSchnittstellen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mathias Lampert\Documents\Mathias Schule_Studium\FH\ELITE-Semester\EIT_2\MenschMaschinenSchnittstellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9196335A-DF9E-4394-B6A8-9B3423A41D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA4102E-77EA-4F30-9FDC-E5E0283475CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C39E4420-1B51-4646-B5DA-7C4527423F7C}"/>
   </bookViews>
@@ -129,9 +129,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -484,30 +483,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971499B0-D794-46D7-8C6E-DB3D1BC7DE64}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H5" sqref="H5:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.36328125" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -521,7 +520,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -536,7 +535,7 @@
         <v>81.25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -551,7 +550,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -562,20 +561,26 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f>B5*100/C5</f>
         <v>37.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="e">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -584,7 +589,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -593,7 +598,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -602,7 +607,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -611,27 +616,22 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11">
         <f>SUM(B3:B10)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <f>SUM(C3:C10)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
